--- a/publication/analyses/outputs/pubfigs/depth-averaged_performance.xlsx
+++ b/publication/analyses/outputs/pubfigs/depth-averaged_performance.xlsx
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9571788124371646</v>
+        <v>0.9571788124371639</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3802022565435484</v>
+        <v>0.3802022503362134</v>
       </c>
       <c r="D2" t="n">
         <v>243.047619047619</v>
@@ -547,22 +547,22 @@
         <v>0.9206349206349206</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3186155176973729</v>
+        <v>0.3186155176884216</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8089986761960286</v>
+        <v>0.8089986761247983</v>
       </c>
       <c r="I2" t="n">
-        <v>0.520555864384652</v>
+        <v>0.5205558643947931</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4710534615282268</v>
+        <v>0.4710534615481041</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7023509530031423</v>
+        <v>0.7023509530237569</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3527039606113233</v>
+        <v>0.3527039604500516</v>
       </c>
       <c r="M2" t="n">
         <v>81.01587301587301</v>
@@ -574,26 +574,26 @@
         <v>88</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1340323814529356</v>
+        <v>-0.1340323814162643</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1639966123360095</v>
+        <v>-0.1639966123942181</v>
       </c>
       <c r="R2" t="n">
-        <v>2.168643351731577</v>
+        <v>2.168645455033084</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SPCT</t>
+          <t>GDPT</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0.911943326983345</v>
       </c>
       <c r="C3" t="n">
-        <v>1.511179671118516</v>
+        <v>1.511179703834972</v>
       </c>
       <c r="D3" t="n">
         <v>94.14285714285714</v>
@@ -605,22 +605,22 @@
         <v>0.3566017316017316</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5389727934698497</v>
+        <v>0.5389727935843093</v>
       </c>
       <c r="H3" t="n">
-        <v>1.103888480127299</v>
+        <v>1.103888480179478</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3382432839225503</v>
+        <v>0.3382432830856023</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4237430164324731</v>
+        <v>0.4237430169769091</v>
       </c>
       <c r="K3" t="n">
-        <v>0.547557882347001</v>
+        <v>0.5475578821850129</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9217035101658063</v>
+        <v>0.9217035104729026</v>
       </c>
       <c r="M3" t="n">
         <v>31.38095238095238</v>
@@ -632,13 +632,13 @@
         <v>88</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.4724113351228858</v>
+        <v>-0.472411337288048</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.06789915524035631</v>
+        <v>-0.06789915326352265</v>
       </c>
       <c r="R3" t="n">
-        <v>2.185569747914391</v>
+        <v>2.185571852211659</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/pubfigs/depth-averaged_performance.xlsx
+++ b/publication/analyses/outputs/pubfigs/depth-averaged_performance.xlsx
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9571788124371639</v>
+        <v>0.9571788124371634</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3802022503362134</v>
+        <v>0.3802022542744052</v>
       </c>
       <c r="D2" t="n">
         <v>243.047619047619</v>
@@ -547,22 +547,22 @@
         <v>0.9206349206349206</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3186155176884216</v>
+        <v>0.3186155176861404</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8089986761247983</v>
+        <v>0.8089986761486075</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5205558643947931</v>
+        <v>0.5205558643884336</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4710534615481041</v>
+        <v>0.4710534615099508</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7023509530237569</v>
+        <v>0.7023509529936034</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3527039604500516</v>
+        <v>0.3527039605218261</v>
       </c>
       <c r="M2" t="n">
         <v>81.01587301587301</v>
@@ -574,13 +574,13 @@
         <v>88</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1340323814162643</v>
+        <v>-0.134032381416295</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1639966123942181</v>
+        <v>-0.1639966123553724</v>
       </c>
       <c r="R2" t="n">
-        <v>2.168645455033084</v>
+        <v>2.168643280123485</v>
       </c>
     </row>
     <row r="3">
@@ -593,7 +593,7 @@
         <v>0.911943326983345</v>
       </c>
       <c r="C3" t="n">
-        <v>1.511179703834972</v>
+        <v>1.511179840453162</v>
       </c>
       <c r="D3" t="n">
         <v>94.14285714285714</v>
@@ -605,22 +605,22 @@
         <v>0.3566017316017316</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5389727935843093</v>
+        <v>0.5389727934035728</v>
       </c>
       <c r="H3" t="n">
-        <v>1.103888480179478</v>
+        <v>1.103888480136183</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3382432830856023</v>
+        <v>0.3382432840738036</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4237430169769091</v>
+        <v>0.4237430164542742</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5475578821850129</v>
+        <v>0.5475578825133074</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9217035104729026</v>
+        <v>0.9217035100864533</v>
       </c>
       <c r="M3" t="n">
         <v>31.38095238095238</v>
@@ -632,13 +632,13 @@
         <v>88</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.472411337288048</v>
+        <v>-0.4724113344475535</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.06789915326352265</v>
+        <v>-0.0678991542469129</v>
       </c>
       <c r="R3" t="n">
-        <v>2.185571852211659</v>
+        <v>2.185569676216209</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/pubfigs/depth-averaged_performance.xlsx
+++ b/publication/analyses/outputs/pubfigs/depth-averaged_performance.xlsx
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9571788124371634</v>
+        <v>0.9571788124371646</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3802022542744052</v>
+        <v>0.3802022553236324</v>
       </c>
       <c r="D2" t="n">
         <v>243.047619047619</v>
@@ -547,22 +547,22 @@
         <v>0.9206349206349206</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3186155176861404</v>
+        <v>0.3186155177606267</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8089986761486075</v>
+        <v>0.8089986762208022</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5205558643884336</v>
+        <v>0.5205558644109219</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4710534615099508</v>
+        <v>0.4710534615058196</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7023509529936034</v>
+        <v>0.7023509530074993</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3527039605218261</v>
+        <v>0.3527039606658067</v>
       </c>
       <c r="M2" t="n">
         <v>81.01587301587301</v>
@@ -574,13 +574,13 @@
         <v>88</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.134032381416295</v>
+        <v>-0.1340323813792466</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1639966123553724</v>
+        <v>-0.1639966123894974</v>
       </c>
       <c r="R2" t="n">
-        <v>2.168643280123485</v>
+        <v>2.168643989305654</v>
       </c>
     </row>
     <row r="3">
@@ -593,7 +593,7 @@
         <v>0.911943326983345</v>
       </c>
       <c r="C3" t="n">
-        <v>1.511179840453162</v>
+        <v>1.511180017033974</v>
       </c>
       <c r="D3" t="n">
         <v>94.14285714285714</v>
@@ -605,22 +605,22 @@
         <v>0.3566017316017316</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5389727934035728</v>
+        <v>0.5389727935448529</v>
       </c>
       <c r="H3" t="n">
-        <v>1.103888480136183</v>
+        <v>1.103888480252816</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3382432840738036</v>
+        <v>0.3382432842482271</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4237430164542742</v>
+        <v>0.4237430159497819</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5475578825133074</v>
+        <v>0.5475578822649517</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9217035100864533</v>
+        <v>0.9217035104149993</v>
       </c>
       <c r="M3" t="n">
         <v>31.38095238095238</v>
@@ -632,13 +632,13 @@
         <v>88</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.4724113344475535</v>
+        <v>-0.4724113332018932</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.0678991542469129</v>
+        <v>-0.06789915492696771</v>
       </c>
       <c r="R3" t="n">
-        <v>2.185569676216209</v>
+        <v>2.185570386145669</v>
       </c>
     </row>
   </sheetData>
